--- a/doc/keyboard2ascii.xlsx
+++ b/doc/keyboard2ascii.xlsx
@@ -1091,7 +1091,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>00</t>
+    <t>1A</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1437,8 +1437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E129"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="D92" sqref="D92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -2711,7 +2711,7 @@
         <v>109</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="E92" s="1"/>
     </row>
@@ -2763,7 +2763,7 @@
       </c>
       <c r="C96" s="5"/>
       <c r="D96" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E96" s="1"/>
     </row>
@@ -2966,7 +2966,7 @@
       </c>
       <c r="C113" s="5"/>
       <c r="D113" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E113" s="1"/>
     </row>
@@ -3202,7 +3202,7 @@
       </c>
       <c r="C129" s="1"/>
       <c r="D129" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E129" s="1"/>
     </row>
